--- a/biology/Botanique/Pyrenacantha_grandifolia/Pyrenacantha_grandifolia.xlsx
+++ b/biology/Botanique/Pyrenacantha_grandifolia/Pyrenacantha_grandifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pyrenacantha grandifolia Engl. est une espèce de lianes de la famille des Icacinaceae et du genre Pyrenacantha[2], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyrenacantha grandifolia Engl. est une espèce de lianes de la famille des Icacinaceae et du genre Pyrenacantha, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique, très rare, elle n'a été observée que sur un seul site, près de Bipindi dans la Région du Sud, où Georg August Zenker l'a trouvée en octobre 1907[3]. Les deux collections réunies à cette époque ont été détruites, et l'espèce n'a pas été revue depuis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique, très rare, elle n'a été observée que sur un seul site, près de Bipindi dans la Région du Sud, où Georg August Zenker l'a trouvée en octobre 1907. Les deux collections réunies à cette époque ont été détruites, et l'espèce n'a pas été revue depuis.
 </t>
         </is>
       </c>
